--- a/biology/Histoire de la zoologie et de la botanique/Jacques_Brosse/Jacques_Brosse.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacques_Brosse/Jacques_Brosse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Brosse, né le 21 août 1922 à Paris et mort le 3 janvier 2008 à Sarlat[1],[2], est un naturaliste, historien des religions et philosophe français. Il fut ordonné moine bouddhiste dans la tradition zen et a écrit plusieurs ouvrages sur le sujet.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Brosse, né le 21 août 1922 à Paris et mort le 3 janvier 2008 à Sarlat est un naturaliste, historien des religions et philosophe français. Il fut ordonné moine bouddhiste dans la tradition zen et a écrit plusieurs ouvrages sur le sujet.
 </t>
         </is>
       </c>
@@ -511,17 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Quatrième enfant d'une famille de cinq, Jacques Brosse est le plus jeune des fils. Il fait des études de droit et suit les cours du philosophe Jean Wahl. En 1953, il devient rédacteur en chef d'encyclopédies et de collections des éditions Robert Laffont[3].
-En 1955, il épouse la romancière Simonne Jacquemard[4]. Il s'installe dans une ancienne forge normande de l'Eure, et crée une sorte de refuge pour animaux. Il sera pionnier de l'écologie, avec une vision holistique de la nature et une passion pour les arbres[5].
-Après le choc de mai 1968, il part pour l'Inde à la découverte du yoga[5].
-Pratiquant le bouddhisme zen Sôtô, il est ordonné moine par Taisen Deshimaru en 1975, dont il est l'un des héritiers avec notamment Roland Rech. Après la mort de Deshimaru, en 1982, il devient à son tour enseignant et maître, fondant en 1996 l'association zen Dôshin. Il a dirigé plusieurs périodes de pratique de zazen lors de sesshin[6].
-Il a été membre du jury du prix Alexandra-David-Néel/Lama-Yongden[7].
-Prix
-1959 : Prix Paul-Flat de l’Académie française pour L’Ordre des choses
-1984 : Prix Feydeau-de-Brou de l’Académie française pour Les Tours du monde des explorateurs. Les grands voyages maritimes 1764-1843
-1987 : Grand prix de littérature de l'Académie française pour l'ensemble de son œuvre traduite en dix langues[8]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quatrième enfant d'une famille de cinq, Jacques Brosse est le plus jeune des fils. Il fait des études de droit et suit les cours du philosophe Jean Wahl. En 1953, il devient rédacteur en chef d'encyclopédies et de collections des éditions Robert Laffont.
+En 1955, il épouse la romancière Simonne Jacquemard. Il s'installe dans une ancienne forge normande de l'Eure, et crée une sorte de refuge pour animaux. Il sera pionnier de l'écologie, avec une vision holistique de la nature et une passion pour les arbres.
+Après le choc de mai 1968, il part pour l'Inde à la découverte du yoga.
+Pratiquant le bouddhisme zen Sôtô, il est ordonné moine par Taisen Deshimaru en 1975, dont il est l'un des héritiers avec notamment Roland Rech. Après la mort de Deshimaru, en 1982, il devient à son tour enseignant et maître, fondant en 1996 l'association zen Dôshin. Il a dirigé plusieurs périodes de pratique de zazen lors de sesshin.
+Il a été membre du jury du prix Alexandra-David-Néel/Lama-Yongden.
+</t>
         </is>
       </c>
     </row>
@@ -546,10 +557,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1959 : Prix Paul-Flat de l’Académie française pour L’Ordre des choses
+1984 : Prix Feydeau-de-Brou de l’Académie française pour Les Tours du monde des explorateurs. Les grands voyages maritimes 1764-1843
+1987 : Grand prix de littérature de l'Académie française pour l'ensemble de son œuvre traduite en dix langues</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jacques_Brosse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Brosse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Itinéraire d'un naturaliste zen : retour à l'origine, Pocket coll. « Terre humaine poche », 2012
 Pourquoi naissons-nous ?, Albin Michel, 2007
@@ -557,7 +608,7 @@
 L'Univers du zen, Albin Michel, 2003
 Dictionnaire des arbres de France, histoire et légendes, Bartillat, 2002
 Les Maîtres zen, Albin Michel, 2001
-Larousse des arbres et des arbustes[9], préface de Jean-Marie Pelt, Paris, Larousse, 2000  (ISBN 2-03-514302-0)
+Larousse des arbres et des arbustes, préface de Jean-Marie Pelt, Paris, Larousse, 2000  (ISBN 2-03-514302-0)
 L'Aventure des forêts en Occident, JC Lattès, 2000
 Zen et Occident, Albin Michel, 1999
 Les Plantes potagères, Bibliothèque de l'Image, 1999
@@ -565,20 +616,20 @@
 Maître Dôgen, moine zen, philosophe et poète, Albin Michel, 1998 ; Albin Michel, 2009
 L'Arbre et l'Éveil, entretiens avec Jean Biès, Albin Michel, 1997
 Histoire de la chrétienté d'Orient et d'Occident, Albin Michel, 1995
-Le Chant du loriot ou l'éternel instant, Plon, 1990  (ISBN 2-259-02363-0)[10]
+Le Chant du loriot ou l'éternel instant, Plon, 1990  (ISBN 2-259-02363-0)
 Les Maîtres spirituels, Bordas, 1989 ; Albin Michel, 2005
 Mythologie des arbres, Plon, 1989 ; Payot-Rivages, 1993, 2001
 Les Grandes Personnes, Robert Laffont, 1988
 Les Arbres de France. Histoire et légendes, Plon, 1987 ; 2e édition sous le titre Dictionnaire des arbres de France, histoire et légendes, Bartillat, 2002
 Terres promises, Julliard, 1985
-Les Tours du monde des explorateurs. Les grands voyages maritimes, 1764-1843, préface de Fernand Braudel, Bordas, 1983 ; nouvelle présentation[11], Larousse, 1999
+Les Tours du monde des explorateurs. Les grands voyages maritimes, 1764-1843, préface de Fernand Braudel, Bordas, 1983 ; nouvelle présentation, Larousse, 1999
 La Découverte de la Chine, Bordas, 1981
 La Magie des plantes, Hachette, 1979 ; 2e édition augmentée, Albin Michel, 1990 ; nouvelle édition, Albin Michel, 2005
 Arbustes, arbrisseaux et lianes d'Europe occidentale, Bordas, 1979
 Alexandra David-Néel. L'aventure et la spiritualité, Retz, 1978 ; 2e édition sous le titre Alexandra David-Neel, Albin Michel, 1991
 Arbres d'Europe occidentale, Bordas, 1977
 Satori, ou un début en zazen, Robert Laffont, 1976 ; 2e édition complétée, sous le titre Satori, dix ans d'expérience avec un maître zen, Albin Michel, 1984
-L'Homme dans les bois, Stock, 1976  (ISBN 2-234-00571-X)[12]
+L'Homme dans les bois, Stock, 1976  (ISBN 2-234-00571-X)
 Mahabalipuram, tout le monde descend, Fayard, 1973
 Hitler avant Hitler, essai d'interprétation psychanalytique, Fayard, 1972
 Cocteau, coll. « Pour une bibliothèque idéale », Gallimard, 1970
